--- a/cuda-notes/data/matrix_mul.xlsx
+++ b/cuda-notes/data/matrix_mul.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\anaconda\envs\bookenvs\books\cuda-notes\cuda-notes\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03F18F5-335F-49B4-923E-5B2B2E3A8C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E82D13E-358E-4E04-ACBB-EE3EA0348CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4FD17BD2-4C1C-421B-8ACE-409EF3D3CCCD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{4FD17BD2-4C1C-421B-8ACE-409EF3D3CCCD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Matrix C</t>
   </si>
@@ -68,6 +69,9 @@
   <si>
     <t>A_shared values in iteration 1</t>
   </si>
+  <si>
+    <t>8,6</t>
+  </si>
 </sst>
 </file>
 
@@ -82,7 +86,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +96,108 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -123,11 +229,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -895,6 +1017,931 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078C6435-6334-46B7-81C2-838458770C58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="2308860"/>
+          <a:ext cx="1714500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3165699D-94F2-4698-9FCE-61EC9DDE8258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7414260" y="1661160"/>
+          <a:ext cx="7620" cy="518160"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1026115" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01417682-E04A-4DD0-A378-5BD56AF4047E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7528560" y="1805940"/>
+          <a:ext cx="1026115" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>blockDim.y = 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1023357" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C4BB0B5-5C50-4EB9-89C1-D8305F572D9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="2392680"/>
+          <a:ext cx="1023357" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>blockDim.x = 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07B2C00-B97A-4E33-903B-56FF6517DE0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9860280" y="0"/>
+          <a:ext cx="7620" cy="2103120"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Arrow Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAAB5E33-8045-45D7-86B5-5E5E3F3924B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="38100" y="3139440"/>
+          <a:ext cx="7208520" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="940835" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{766A7840-909B-4C26-A7EB-C83D1B8BE05C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3703320" y="2994660"/>
+          <a:ext cx="940835" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>gridDim.x = 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="943592" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A9EA995-D9D1-419C-9930-765FEBD8922C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9403080" y="1028700"/>
+          <a:ext cx="943592" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>gridDim.y = 4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Arrow Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEA018E-FE4F-4A95-B824-C7363EAB978F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7581900" y="45720"/>
+          <a:ext cx="0" cy="1036320"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1986634" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA7B0777-DEBE-4A5F-B5E4-25318BA2E0DE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7353300" y="327660"/>
+          <a:ext cx="1986634" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>blockIdx.y*blockDim.y = 2*3 =6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1042850" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6592BDBD-3A61-4FAC-B2DD-64DD52EF7086}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7459980" y="1165860"/>
+          <a:ext cx="1042850" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>threadIdx.y = 2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Arrow Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8635CFDB-0227-4199-A54B-02CA01C137D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7437120" y="1066800"/>
+          <a:ext cx="7620" cy="434340"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1E7B36A-9422-424A-A732-B7664855F7A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="45720" y="2346960"/>
+          <a:ext cx="1744980" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Straight Arrow Connector 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{257B596F-79B4-468D-B645-01802488D95D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1912620" y="2293620"/>
+          <a:ext cx="1691640" cy="15240"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1040093" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EF432A-2DC0-4D61-AB0F-9CDCA0D0E2F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2491740" y="2362200"/>
+          <a:ext cx="1040093" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>threadIdx.x = 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1996440" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B5B087F-DAF0-42C0-9859-FD9D6EF9BD54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2377440"/>
+          <a:ext cx="1996440" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>blockIdx.x*blockDim.x = 1*3 = 3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1197,7 +2244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446A5F55-BCC4-4647-817B-A91CC43E1D38}">
   <dimension ref="B2:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O9" sqref="O9:Q9"/>
     </sheetView>
   </sheetViews>
@@ -1326,9 +2373,9 @@
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1350,9 +2397,9 @@
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1374,9 +2421,9 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1387,14 +2434,14 @@
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
@@ -1582,4 +2629,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13CEFEE-6669-43B4-BFFE-C6509740D8A7}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>